--- a/N.Colon-Lettuce-CapacityFungalEndoColonize.xlsx
+++ b/N.Colon-Lettuce-CapacityFungalEndoColonize.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolecolon/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolecolon/Desktop/Phytoparastica/Excels_Data_Lettuce/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A64B9C-E35D-9B4D-B0E0-16F6F6359371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8073F19D-D177-A749-BBC8-8F17FC149D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1260" windowWidth="28800" windowHeight="14940" xr2:uid="{927A1CB5-2586-2E4F-B1B6-AEC9B529605C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="26">
   <si>
     <t>Segments were evaluated for the extent of fungal growth: 1 = no colonization (i.e., no hyphae visible on the tissue), 2 = low colonization (15-25 % coverage of root disc by fungal mycelium), 3 = medium colonization (25-50 % coverage by fungal mycelium), 4 = high colonization (50-100 % coverage by fungal mycelium), 5 = overgrowth (100-125 % coverage by fungal mycelium), 6 = extreme overgrowth (&gt;125 % coverage of by fungal mycelium) of the tissue.</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>Aspergillus terreus</t>
-  </si>
-  <si>
-    <t>SY1444</t>
   </si>
   <si>
     <t>Alternaria sp.</t>
@@ -665,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B96EF01-81C4-0046-8377-8A9CE0C0FFC0}">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -680,17 +677,17 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -700,24 +697,24 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="2" customFormat="1">
       <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>16</v>
-      </c>
       <c r="E7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="1"/>
     </row>
@@ -825,10 +822,10 @@
     </row>
     <row r="14" spans="1:6" s="2" customFormat="1">
       <c r="A14" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -842,10 +839,10 @@
     </row>
     <row r="15" spans="1:6" s="2" customFormat="1">
       <c r="A15" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" s="2">
         <v>2</v>
@@ -859,10 +856,10 @@
     </row>
     <row r="16" spans="1:6" s="2" customFormat="1">
       <c r="A16" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="2">
         <v>3</v>
@@ -876,10 +873,10 @@
     </row>
     <row r="17" spans="1:5" s="2" customFormat="1">
       <c r="A17" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="2">
         <v>4</v>
@@ -893,10 +890,10 @@
     </row>
     <row r="18" spans="1:5" s="2" customFormat="1">
       <c r="A18" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="2">
         <v>5</v>
@@ -910,10 +907,10 @@
     </row>
     <row r="19" spans="1:5" s="2" customFormat="1">
       <c r="A19" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="2">
         <v>6</v>
@@ -927,10 +924,10 @@
     </row>
     <row r="20" spans="1:5" s="2" customFormat="1">
       <c r="A20" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -944,10 +941,10 @@
     </row>
     <row r="21" spans="1:5" s="2" customFormat="1">
       <c r="A21" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" s="2">
         <v>2</v>
@@ -961,10 +958,10 @@
     </row>
     <row r="22" spans="1:5" s="2" customFormat="1">
       <c r="A22" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" s="2">
         <v>3</v>
@@ -978,10 +975,10 @@
     </row>
     <row r="23" spans="1:5" s="2" customFormat="1">
       <c r="A23" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" s="2">
         <v>4</v>
@@ -995,10 +992,10 @@
     </row>
     <row r="24" spans="1:5" s="2" customFormat="1">
       <c r="A24" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" s="2">
         <v>5</v>
@@ -1012,10 +1009,10 @@
     </row>
     <row r="25" spans="1:5" s="2" customFormat="1">
       <c r="A25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="C25" s="2">
         <v>6</v>
@@ -1029,10 +1026,10 @@
     </row>
     <row r="26" spans="1:5" s="2" customFormat="1">
       <c r="A26" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
@@ -1046,10 +1043,10 @@
     </row>
     <row r="27" spans="1:5" s="2" customFormat="1">
       <c r="A27" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" s="2">
         <v>2</v>
@@ -1063,10 +1060,10 @@
     </row>
     <row r="28" spans="1:5" s="2" customFormat="1">
       <c r="A28" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C28" s="2">
         <v>3</v>
@@ -1080,10 +1077,10 @@
     </row>
     <row r="29" spans="1:5" s="2" customFormat="1">
       <c r="A29" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29" s="2">
         <v>4</v>
@@ -1097,10 +1094,10 @@
     </row>
     <row r="30" spans="1:5" s="2" customFormat="1">
       <c r="A30" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C30" s="2">
         <v>5</v>
@@ -1114,10 +1111,10 @@
     </row>
     <row r="31" spans="1:5" s="2" customFormat="1">
       <c r="A31" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31" s="2">
         <v>6</v>
@@ -1131,10 +1128,10 @@
     </row>
     <row r="32" spans="1:5" s="2" customFormat="1">
       <c r="A32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -1148,10 +1145,10 @@
     </row>
     <row r="33" spans="1:5" s="2" customFormat="1">
       <c r="A33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="C33" s="2">
         <v>2</v>
@@ -1165,10 +1162,10 @@
     </row>
     <row r="34" spans="1:5" s="2" customFormat="1">
       <c r="A34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="C34" s="2">
         <v>3</v>
@@ -1182,10 +1179,10 @@
     </row>
     <row r="35" spans="1:5" s="2" customFormat="1">
       <c r="A35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="C35" s="2">
         <v>4</v>
@@ -1199,10 +1196,10 @@
     </row>
     <row r="36" spans="1:5" s="2" customFormat="1">
       <c r="A36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="C36" s="2">
         <v>5</v>
@@ -1216,10 +1213,10 @@
     </row>
     <row r="37" spans="1:5" s="2" customFormat="1">
       <c r="A37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="C37" s="2">
         <v>6</v>
@@ -1335,10 +1332,10 @@
     </row>
     <row r="44" spans="1:5" s="2" customFormat="1">
       <c r="A44" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -1352,10 +1349,10 @@
     </row>
     <row r="45" spans="1:5" s="2" customFormat="1">
       <c r="A45" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C45" s="2">
         <v>2</v>
@@ -1369,10 +1366,10 @@
     </row>
     <row r="46" spans="1:5" s="2" customFormat="1">
       <c r="A46" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C46" s="2">
         <v>3</v>
@@ -1386,10 +1383,10 @@
     </row>
     <row r="47" spans="1:5" s="2" customFormat="1">
       <c r="A47" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C47" s="2">
         <v>4</v>
@@ -1403,10 +1400,10 @@
     </row>
     <row r="48" spans="1:5" s="2" customFormat="1">
       <c r="A48" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C48" s="2">
         <v>5</v>
@@ -1420,10 +1417,10 @@
     </row>
     <row r="49" spans="1:5" s="2" customFormat="1">
       <c r="A49" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C49" s="2">
         <v>6</v>
@@ -1437,10 +1434,10 @@
     </row>
     <row r="50" spans="1:5" s="2" customFormat="1">
       <c r="A50" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
@@ -1454,10 +1451,10 @@
     </row>
     <row r="51" spans="1:5" s="2" customFormat="1">
       <c r="A51" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C51" s="2">
         <v>2</v>
@@ -1471,10 +1468,10 @@
     </row>
     <row r="52" spans="1:5" s="2" customFormat="1">
       <c r="A52" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C52" s="2">
         <v>3</v>
@@ -1488,10 +1485,10 @@
     </row>
     <row r="53" spans="1:5" s="2" customFormat="1">
       <c r="A53" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C53" s="2">
         <v>4</v>
@@ -1505,10 +1502,10 @@
     </row>
     <row r="54" spans="1:5" s="2" customFormat="1">
       <c r="A54" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C54" s="2">
         <v>5</v>
@@ -1522,10 +1519,10 @@
     </row>
     <row r="55" spans="1:5" s="2" customFormat="1">
       <c r="A55" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C55" s="6">
         <v>6</v>
